--- a/data/trans_bre/P31_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>20,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>11,34%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 20,7</t>
+          <t>12,06; 36,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 17,86</t>
+          <t>-0,15; 16,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 11,81</t>
+          <t>-3,57; 13,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 30,27</t>
+          <t>-3,83; 19,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,57; 23,73</t>
+          <t>15,71; 66,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 14,9</t>
+          <t>-0,16; 22,49</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 17,83</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 30,43</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>11,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19,87%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 14,65</t>
+          <t>2,74; 21,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 18,25</t>
+          <t>-3,54; 18,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 19,34</t>
+          <t>1,14; 22,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 19,07</t>
+          <t>4,75; 25,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 24,92</t>
+          <t>3,33; 31,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 27,64</t>
+          <t>-4,18; 25,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 33,32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 40,71</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>-20,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-5,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 2,79</t>
+          <t>-36,22; -4,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 13,75</t>
+          <t>-9,94; 16,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 13,0</t>
+          <t>-24,89; 11,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 2,98</t>
+          <t>-22,77; 19,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 16,47</t>
+          <t>-37,55; -4,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 15,97</t>
+          <t>-10,52; 21,05</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-26,79; 14,75</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-25,63; 30,38</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 12,98</t>
+          <t>5,75; 20,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 14,74</t>
+          <t>1,72; 14,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 11,35</t>
+          <t>-0,3; 12,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 17,16</t>
+          <t>3,5; 17,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 18,95</t>
+          <t>7,18; 30,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 14,66</t>
+          <t>2,09; 19,19</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 16,14</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 26,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>20,36</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,85</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>29,47%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,34%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>20.76780930809653</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.955341192666722</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.276845567060006</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.23441657417307</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3008167564187797</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.110677743073158</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.05252635940528229</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1488322656302105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>12,06; 36,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 16,63</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 13,41</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 19,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>15,71; 66,78</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 22,49</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 17,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 30,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>11.58349336939561</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.3751767384539027</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.118032653676894</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.036113025126416</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1516826437862645</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.005357036382713199</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.03727963302551882</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.04847832686885478</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>32.83600944382356</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.53445464763432</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.54696965994102</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.08444922234142</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.582596647307811</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2225677313373055</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1788028550364452</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3203716174599147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,38</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,37</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>14,34</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,25%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,97%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>15,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>19,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 21,91</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 18,08</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 22,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 25,91</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 31,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 25,05</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 33,32</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 40,71</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.27742551809806</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.547936111825548</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.23855579814781</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>15.07399255792473</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1440298812995664</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.08092030686600873</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1651218273881012</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2113564656519113</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-20,18</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,09</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-20,89%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-5,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-0,53%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.582358159333089</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.502682868313922</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.091011275960144</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.106448501027291</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.0313095508215263</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.02777061638479064</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.02602306857302657</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.06289558847729708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-36,22; -4,4</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; 16,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-24,89; 11,71</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-22,77; 19,79</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-37,55; -4,93</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,52; 21,05</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-26,79; 14,75</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-25,63; 30,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>23.21392714254963</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.41457369155136</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23.41636469445089</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>27.20379026244705</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.337047214728475</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2531646727135533</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3519639387017399</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4277287418301728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>12,29</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>10,49</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16,2%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,03%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>14,65%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-24.74740899890435</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.540612346305528</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.93088809714911</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.642975194861295</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2550232148893566</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.05037012189710004</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.04445033637971271</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.007998013189865769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,75; 20,55</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 14,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 12,12</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 17,63</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>7,18; 30,01</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 19,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 16,14</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 26,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-43.3353034238362</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.001546666480303</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-23.09918775047425</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-21.62990618369889</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.4445193836104113</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.0826112505034985</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2490703745923715</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2390900376088067</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-8.319069589668425</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.65559931673274</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.17162022051895</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>21.14317658537036</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.08750700026286726</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2485896774272551</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1691318065704519</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3202778493458787</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>12.22464727575412</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.508960632361461</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.742920172517108</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.0463768375344</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.161446074182416</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.09169870363416224</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.08524601050522077</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1552327373153413</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5.520521380199366</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.949731506040565</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1146309676951067</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.79694088265774</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.06888732438735901</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.02258068943122372</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.001673135299458749</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.0509606208948172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.00581906657572</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.21893355060738</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.6828846698435</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>18.07908396590722</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2919517825140047</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1840164412405275</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1694133908017578</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.269543114860321</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
